--- a/Cleaning/Expenditure/expenditure_cleaned.xlsx
+++ b/Cleaning/Expenditure/expenditure_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10204"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zctpj17_ucl_ac_uk/Documents/ECON0053 Economics of Tax Policy/Grp Project/Quantitative/Cleaning/Expenditure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC646704348A8974D1D87EA426E691960B47B9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0F8599-94A4-CD43-BDE1-4F142A9B0C60}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_FFC646704348A8974D1D87EA426E691960B47B9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF2382AC-C59C-AB4D-BF72-5E04ECBA9E17}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="800" windowWidth="28280" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -147,7 +145,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +200,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FBAA8B4-DE6D-EA48-A917-A6963B95DB78}" name="Table1" displayName="Table1" ref="A1:F181" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:F181" xr:uid="{2FBAA8B4-DE6D-EA48-A917-A6963B95DB78}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2019"/>
+        <filter val="2021"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Ontario"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1st quintile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7DA53904-4ACE-D94F-BB6D-982AB07029BD}" name="REF_DATE"/>
+    <tableColumn id="2" xr3:uid="{DD92208B-BE56-4C4C-A292-9C47E15AFB4D}" name="GEO"/>
+    <tableColumn id="3" xr3:uid="{E4B74C5C-CC8C-EA43-A0C5-DC5B345DE08F}" name="Income_Quintile"/>
+    <tableColumn id="4" xr3:uid="{65C42E9B-F295-4043-81DC-FCB3B18DBB80}" name="Household expenditures, summary-level categories"/>
+    <tableColumn id="5" xr3:uid="{2D266B14-FBB8-D24D-BA37-D9167F3674AA}" name="UOM"/>
+    <tableColumn id="6" xr3:uid="{FA3BFEF2-89A5-B948-95AD-B1B14EEAF89C}" name="VALUE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F181"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -483,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -503,7 +581,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -523,7 +601,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -543,7 +621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -563,7 +641,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -583,7 +661,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -603,7 +681,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -623,7 +701,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -643,7 +721,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -663,7 +741,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -683,7 +761,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -703,7 +781,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -723,7 +801,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -743,7 +821,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -803,7 +881,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -823,7 +901,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -843,7 +921,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -863,7 +941,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -883,7 +961,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -903,7 +981,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -923,7 +1001,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -943,7 +1021,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -963,7 +1041,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -983,7 +1061,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -1003,7 +1081,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -1023,7 +1101,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1043,7 +1121,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1063,7 +1141,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1083,7 +1161,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1103,7 +1181,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1123,7 +1201,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1143,7 +1221,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1163,7 +1241,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1183,7 +1261,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1203,7 +1281,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -1223,7 +1301,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -1243,7 +1321,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -1263,7 +1341,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2019</v>
       </c>
@@ -1283,7 +1361,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -1303,7 +1381,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -1323,7 +1401,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -1343,7 +1421,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -1363,7 +1441,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -1383,7 +1461,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -1403,7 +1481,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2019</v>
       </c>
@@ -1423,7 +1501,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -1443,7 +1521,7 @@
         <v>5446</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -1463,7 +1541,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -1483,7 +1561,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -1503,7 +1581,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -1523,7 +1601,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -1543,7 +1621,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -1563,7 +1641,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -1583,7 +1661,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -1603,7 +1681,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -1623,7 +1701,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -1643,7 +1721,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -1663,7 +1741,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -1683,7 +1761,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -1703,7 +1781,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -1723,7 +1801,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -1743,7 +1821,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -1763,7 +1841,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -1783,7 +1861,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -1803,7 +1881,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -1823,7 +1901,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -1843,7 +1921,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -1863,7 +1941,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -1883,7 +1961,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -1903,7 +1981,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -1923,7 +2001,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -1943,7 +2021,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -2003,7 +2081,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -2023,7 +2101,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -2043,7 +2121,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -2063,7 +2141,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -2083,7 +2161,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -2103,7 +2181,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -2123,7 +2201,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -2143,7 +2221,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -2163,7 +2241,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -2183,7 +2261,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -2203,7 +2281,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -2223,7 +2301,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -2243,7 +2321,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -2263,7 +2341,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -2283,7 +2361,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -2303,7 +2381,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -2323,7 +2401,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -2343,7 +2421,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -2363,7 +2441,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -2383,7 +2461,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -2403,7 +2481,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -2423,7 +2501,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -2443,7 +2521,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -2463,7 +2541,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -2483,7 +2561,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -2503,7 +2581,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -2523,7 +2601,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -2543,7 +2621,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -2563,7 +2641,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -2583,7 +2661,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -2603,7 +2681,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -2623,7 +2701,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -2643,7 +2721,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -2663,7 +2741,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -2683,7 +2761,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -2703,7 +2781,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -2723,7 +2801,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -2743,7 +2821,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -2763,7 +2841,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -2783,7 +2861,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -2803,7 +2881,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -2823,7 +2901,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -2843,7 +2921,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -2863,7 +2941,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -2883,7 +2961,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -2903,7 +2981,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2023</v>
       </c>
@@ -2923,7 +3001,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2023</v>
       </c>
@@ -2943,7 +3021,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2023</v>
       </c>
@@ -2963,7 +3041,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2023</v>
       </c>
@@ -2983,7 +3061,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2023</v>
       </c>
@@ -3003,7 +3081,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2023</v>
       </c>
@@ -3023,7 +3101,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2023</v>
       </c>
@@ -3043,7 +3121,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2023</v>
       </c>
@@ -3063,7 +3141,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -3083,7 +3161,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -3103,7 +3181,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2023</v>
       </c>
@@ -3123,7 +3201,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -3143,7 +3221,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2023</v>
       </c>
@@ -3163,7 +3241,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2023</v>
       </c>
@@ -3183,7 +3261,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2023</v>
       </c>
@@ -3203,7 +3281,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -3223,7 +3301,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2023</v>
       </c>
@@ -3243,7 +3321,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2023</v>
       </c>
@@ -3263,7 +3341,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2023</v>
       </c>
@@ -3283,7 +3361,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -3303,7 +3381,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2023</v>
       </c>
@@ -3323,7 +3401,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2023</v>
       </c>
@@ -3343,7 +3421,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -3363,7 +3441,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2023</v>
       </c>
@@ -3383,7 +3461,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2023</v>
       </c>
@@ -3403,7 +3481,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -3423,7 +3501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -3440,7 +3518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -3460,7 +3538,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2023</v>
       </c>
@@ -3480,7 +3558,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2023</v>
       </c>
@@ -3500,7 +3578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2023</v>
       </c>
@@ -3520,7 +3598,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2023</v>
       </c>
@@ -3540,7 +3618,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2023</v>
       </c>
@@ -3560,7 +3638,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2023</v>
       </c>
@@ -3580,7 +3658,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -3600,7 +3678,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2023</v>
       </c>
@@ -3620,7 +3698,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2023</v>
       </c>
@@ -3640,7 +3718,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2023</v>
       </c>
@@ -3660,7 +3738,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2023</v>
       </c>
@@ -3680,7 +3758,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2023</v>
       </c>
@@ -3700,7 +3778,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2023</v>
       </c>
@@ -3720,7 +3798,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2023</v>
       </c>
@@ -3740,7 +3818,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -3760,7 +3838,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -3780,7 +3858,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2023</v>
       </c>
@@ -3800,7 +3878,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2023</v>
       </c>
@@ -3820,7 +3898,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2023</v>
       </c>
@@ -3840,7 +3918,7 @@
         <v>5875</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2023</v>
       </c>
@@ -3860,7 +3938,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2023</v>
       </c>
@@ -3880,7 +3958,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2023</v>
       </c>
@@ -3900,7 +3978,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2023</v>
       </c>
@@ -3920,7 +3998,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2023</v>
       </c>
@@ -3940,7 +4018,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2023</v>
       </c>
@@ -3960,7 +4038,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2023</v>
       </c>
@@ -3980,7 +4058,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2023</v>
       </c>
@@ -4000,7 +4078,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2023</v>
       </c>
@@ -4020,7 +4098,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2023</v>
       </c>
@@ -4040,7 +4118,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2023</v>
       </c>
@@ -4060,7 +4138,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2023</v>
       </c>
@@ -4082,5 +4160,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>